--- a/data/trans_orig/P36S4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36S4-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB01E0CF-4F9D-4A9F-A07C-66A6E9AFB7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79324820-A715-4361-8539-BB9ADED439F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01CEF7BE-C9AC-4FC6-8BD2-DFFA2A862D11}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DFE4761-C6B2-422D-8D77-BAADB6712A37}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -322,31 +322,31 @@
     <t>22,97%</t>
   </si>
   <si>
+    <t>24,51%</t>
+  </si>
+  <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>61,93%</t>
+    <t>61,58%</t>
   </si>
   <si>
     <t>77,03%</t>
   </si>
   <si>
+    <t>75,49%</t>
+  </si>
+  <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
     <t>76,27%</t>
   </si>
   <si>
-    <t>38,07%</t>
+    <t>38,42%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -376,49 +376,49 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>31,5%</t>
+    <t>27,19%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>68,5%</t>
+    <t>72,81%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -1043,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6526696B-F30C-402D-B4A0-D83E650691C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4349C4-FE84-4375-8A92-5979EF0B34F6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2929,7 +2929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5D663A-C55D-474F-83DD-FB1B24134A6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A11207-A53D-4CED-8CA6-02CB59732D3D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,7 +3645,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3654,13 +3654,13 @@
         <v>904</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3693,7 +3693,7 @@
         <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>20</v>
@@ -3705,10 +3705,10 @@
         <v>2785</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>20</v>
@@ -4855,7 +4855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC370759-6F00-482A-A2CC-249CD11E7D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1BCBF-B9D8-4222-9D94-57D09D4F7B72}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P36S4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36S4-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79324820-A715-4361-8539-BB9ADED439F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55AD9901-9666-4551-921A-9392E015AC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DFE4761-C6B2-422D-8D77-BAADB6712A37}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05A16ABC-9049-49F7-9D60-259F8F3100DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="196">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2007 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -133,43 +133,43 @@
     <t>23,8%</t>
   </si>
   <si>
-    <t>82,58%</t>
+    <t>86,83%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>40,41%</t>
+    <t>45,35%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>17,42%</t>
+    <t>13,17%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>59,59%</t>
+    <t>54,65%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -187,52 +187,52 @@
     <t>13,38%</t>
   </si>
   <si>
-    <t>41,86%</t>
+    <t>48,89%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>61,21%</t>
+    <t>62,47%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>78,01%</t>
   </si>
   <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>38,79%</t>
+    <t>37,53%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>39,29%</t>
+    <t>51,55%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -241,16 +241,16 @@
     <t>4,95%</t>
   </si>
   <si>
-    <t>25,02%</t>
+    <t>25,39%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>15,38%</t>
@@ -259,31 +259,31 @@
     <t>4,12%</t>
   </si>
   <si>
-    <t>33,42%</t>
+    <t>37,24%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>66,58%</t>
+    <t>62,76%</t>
   </si>
   <si>
     <t>95,88%</t>
@@ -292,16 +292,16 @@
     <t>82,94%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>31,04%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -310,7 +310,7 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>12,57%</t>
+    <t>10,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -322,31 +322,31 @@
     <t>22,97%</t>
   </si>
   <si>
+    <t>75,0%</t>
+  </si>
+  <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>61,58%</t>
+    <t>61,41%</t>
   </si>
   <si>
     <t>77,03%</t>
   </si>
   <si>
+    <t>25,0%</t>
+  </si>
+  <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
     <t>76,27%</t>
   </si>
   <si>
-    <t>38,42%</t>
+    <t>38,59%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -376,49 +376,49 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>27,19%</t>
+    <t>27,13%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>72,81%</t>
+    <t>72,87%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -427,7 +427,7 @@
     <t>5,78%</t>
   </si>
   <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2015 (Tasa respuesta: 1,86%)</t>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2016 (Tasa respuesta: 1,86%)</t>
   </si>
   <si>
     <t>70,56%</t>
@@ -451,49 +451,49 @@
     <t>89,58%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>54,01%</t>
+    <t>53,4%</t>
   </si>
   <si>
     <t>88,0%</t>
   </si>
   <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>45,99%</t>
+    <t>46,6%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -511,13 +511,13 @@
     <t>6,65%</t>
   </si>
   <si>
-    <t>30,61%</t>
+    <t>33,18%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>11,76%</t>
+    <t>11,78%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -526,13 +526,13 @@
     <t>93,35%</t>
   </si>
   <si>
-    <t>69,39%</t>
+    <t>66,82%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>88,24%</t>
+    <t>88,22%</t>
   </si>
   <si>
     <t>4,9%</t>
@@ -544,13 +544,10 @@
     <t>8,75%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>22,11%</t>
+    <t>22,38%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -559,13 +556,10 @@
     <t>91,25%</t>
   </si>
   <si>
-    <t>63,67%</t>
-  </si>
-  <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>77,89%</t>
+    <t>77,62%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -574,55 +568,55 @@
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -1043,7 +1037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4349C4-FE84-4375-8A92-5979EF0B34F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A4B6F8-E72C-4574-89E8-76EC33DDCA1A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2929,7 +2923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A11207-A53D-4CED-8CA6-02CB59732D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412D5884-E827-48EC-8AC7-224F13B12B88}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,7 +3639,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3654,13 +3648,13 @@
         <v>904</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3693,7 +3687,7 @@
         <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>20</v>
@@ -3705,10 +3699,10 @@
         <v>2785</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>20</v>
@@ -4855,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1BCBF-B9D8-4222-9D94-57D09D4F7B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3116B977-CDB0-4997-AA27-756F7C90711E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6418,7 +6412,7 @@
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6427,13 +6421,13 @@
         <v>976</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6445,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>22</v>
@@ -6463,10 +6457,10 @@
         <v>10187</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>20</v>
@@ -6478,10 +6472,10 @@
         <v>21095</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>20</v>
@@ -6535,7 +6529,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6597,13 @@
         <v>37896</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -6618,13 +6612,13 @@
         <v>15708</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
@@ -6633,13 +6627,13 @@
         <v>53605</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6648,13 @@
         <v>44805</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H37" s="7">
         <v>29</v>
@@ -6669,13 +6663,13 @@
         <v>29321</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M37" s="7">
         <v>72</v>
@@ -6684,13 +6678,13 @@
         <v>74125</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,37 +6705,37 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
